--- a/biology/Zoologie/Apolania_segmentata/Apolania_segmentata.xlsx
+++ b/biology/Zoologie/Apolania_segmentata/Apolania_segmentata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Apolania segmentata, unique représentant du genre Apolania, est une espèce d'araignées aranéomorphes de la famille des Ctenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apolania segmentata, unique représentant du genre Apolania, est une espèce d'araignées aranéomorphes de la famille des Ctenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Seychelles[1]. Elle se rencontre sur Mahé entre 350 et 600 m d'altitude sur le Morne Blanc.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Seychelles. Elle se rencontre sur Mahé entre 350 et 600 m d'altitude sur le Morne Blanc.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 4 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 4 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Simon, 1898 : Études arachnologiques. 29e Mémoire. XLVI. Arachnides recueillis en 1895 par M. le Dr A. Brauer (de l'université de Marbourg) aux îles Séchelles. Annales de la Société entomologique de France, vol. 66, p. 370-388 (texte intégral).</t>
         </is>
